--- a/src/csv/template.xlsx
+++ b/src/csv/template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itai/Documents/מדעי המחשב/שנה שלישית/פרוייקט גמר/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itai/Documents/ourGovernment-React/src/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60B3E01E-B32E-A44A-B50E-F374E209924D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821C7CE7-C4CF-704A-A7D5-168FB04570E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27640" windowHeight="15800" xr2:uid="{31000AA0-AA0E-064D-83DB-D33034594433}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Votes" sheetId="1" r:id="rId1"/>
+    <sheet name="Offices &amp; Candidates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -709,7 +710,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -906,304 +907,127 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I12" s="6"/>
       <c r="J12" s="15"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I13" s="6"/>
       <c r="J13" s="15"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="15"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="15"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="15"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>50</v>
-      </c>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I17" s="6"/>
       <c r="J17" s="15"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>56</v>
-      </c>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I18" s="6"/>
       <c r="J18" s="15"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>22</v>
-      </c>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I19" s="6"/>
       <c r="J19" s="15"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>28</v>
-      </c>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I20" s="6"/>
       <c r="J20" s="15"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>35</v>
-      </c>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I21" s="6"/>
       <c r="J21" s="15"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I22" s="6"/>
       <c r="J22" s="15"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I23" s="6"/>
       <c r="J23" s="15"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I24" s="6"/>
       <c r="J24" s="15"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I25" s="6"/>
       <c r="J25" s="15"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I26" s="6"/>
       <c r="J26" s="15"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -1270,32 +1094,277 @@
       <c r="L42" s="6"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4B1695A-C3D8-654A-9133-9E3C155A19C7}">
+          <x14:formula1>
+            <xm:f>'Offices &amp; Candidates'!$C$6:$C$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0FFE226B-EAF0-464C-AD5A-EC4E170DBB95}">
+          <x14:formula1>
+            <xm:f>'Offices &amp; Candidates'!$D$6:$D$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B00CE3C5-ACC6-B244-84F9-9EEAA3EFAFEB}">
+          <x14:formula1>
+            <xm:f>'Offices &amp; Candidates'!$E$6:$E$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42F1A7BB-9454-634B-8447-FA9584F8ACF2}">
+          <x14:formula1>
+            <xm:f>'Offices &amp; Candidates'!$F$6:$F$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{19E1003F-2D48-A940-B000-B122AE43ABF6}">
+          <x14:formula1>
+            <xm:f>'Offices &amp; Candidates'!$G$6:$G$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39585757-0834-C949-9E33-C32F2879287C}">
+          <x14:formula1>
+            <xm:f>'Offices &amp; Candidates'!$H$6:$H$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC523EC6-627B-7B47-B585-9CAA7E13E0B4}">
+          <x14:formula1>
+            <xm:f>'Offices &amp; Candidates'!$I$6:$I$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H10</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A91BC5-5470-A441-AE5A-8F8BE0C5F647}">
+  <dimension ref="C3:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="C4:I4"/>
   </mergeCells>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10" xr:uid="{B4B1695A-C3D8-654A-9133-9E3C155A19C7}">
-      <formula1>$B$15:$B$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10" xr:uid="{0FFE226B-EAF0-464C-AD5A-EC4E170DBB95}">
-      <formula1>$C$15:$C$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10" xr:uid="{B00CE3C5-ACC6-B244-84F9-9EEAA3EFAFEB}">
-      <formula1>$D$15:$D$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10" xr:uid="{42F1A7BB-9454-634B-8447-FA9584F8ACF2}">
-      <formula1>$E$15:$E$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{19E1003F-2D48-A940-B000-B122AE43ABF6}">
-      <formula1>$F$15:$F$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G10" xr:uid="{39585757-0834-C949-9E33-C32F2879287C}">
-      <formula1>$G$15:$G$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10" xr:uid="{CC523EC6-627B-7B47-B585-9CAA7E13E0B4}">
-      <formula1>$H$15:$H$21</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/csv/template.xlsx
+++ b/src/csv/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itai/Documents/ourGovernment-React/src/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821C7CE7-C4CF-704A-A7D5-168FB04570E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D00164-DAF3-1A4C-B20D-CA610FAE72E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27640" windowHeight="15800" xr2:uid="{31000AA0-AA0E-064D-83DB-D33034594433}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{31000AA0-AA0E-064D-83DB-D33034594433}"/>
   </bookViews>
   <sheets>
     <sheet name="Votes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Alon Schuster</t>
+  </si>
+  <si>
+    <t>List of candidates by voters</t>
   </si>
 </sst>
 </file>
@@ -237,15 +240,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -333,15 +348,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,25 +460,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -408,6 +524,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>992644</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103248</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>44581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97916729-A122-0F4A-82AF-B870844113D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6773334" y="364942"/>
+          <a:ext cx="4278190" cy="1577340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165101</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1334331</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E342AA-BD73-4F97-7606-BFB95166E131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4864101" y="266700"/>
+          <a:ext cx="4268030" cy="1574800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,394 +921,745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251182A5-2D0A-3247-AD3A-7C97976E41D9}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="C1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
-    <col min="9" max="14" width="22.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="26"/>
+    <col min="2" max="2" width="26.1640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="26" customWidth="1"/>
+    <col min="4" max="10" width="22.6640625" style="26" customWidth="1"/>
+    <col min="11" max="14" width="22.83203125" style="26" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="3:12" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="3:12" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>111</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>222</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>333</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>444</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>555</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>666</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>777</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>888</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>999</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I11" s="6"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I12" s="6"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I13" s="6"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I14" s="6"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I15" s="6"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I16" s="6"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I17" s="6"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I18" s="6"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I19" s="6"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I20" s="6"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I21" s="6"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I22" s="6"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I23" s="6"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I24" s="6"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I25" s="6"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I26" s="6"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C6" s="19">
+        <v>10</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C7" s="19">
+        <v>11</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="19">
+        <v>12</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="19">
+        <v>13</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="19">
+        <v>14</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="19">
+        <v>15</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="19">
+        <v>16</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="19">
+        <v>17</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="19">
+        <v>18</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="19">
+        <v>19</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C16" s="19">
+        <v>20</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="19">
+        <v>21</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="19">
+        <v>22</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="19">
+        <v>23</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="19">
+        <v>24</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="19">
+        <v>25</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="19">
+        <v>26</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23" s="19">
+        <v>27</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C24" s="19">
+        <v>28</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="20">
+        <v>29</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="E3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
@@ -1102,43 +1667,43 @@
           <x14:formula1>
             <xm:f>'Offices &amp; Candidates'!$C$6:$C$12</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>D6:D25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0FFE226B-EAF0-464C-AD5A-EC4E170DBB95}">
           <x14:formula1>
             <xm:f>'Offices &amp; Candidates'!$D$6:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10</xm:sqref>
+          <xm:sqref>E6:E25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B00CE3C5-ACC6-B244-84F9-9EEAA3EFAFEB}">
           <x14:formula1>
             <xm:f>'Offices &amp; Candidates'!$E$6:$E$12</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D10</xm:sqref>
+          <xm:sqref>F6:F25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{42F1A7BB-9454-634B-8447-FA9584F8ACF2}">
           <x14:formula1>
             <xm:f>'Offices &amp; Candidates'!$F$6:$F$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E10</xm:sqref>
+          <xm:sqref>G6:G25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39585757-0834-C949-9E33-C32F2879287C}">
+          <x14:formula1>
+            <xm:f>'Offices &amp; Candidates'!$H$6:$H$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>I6:I25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC523EC6-627B-7B47-B585-9CAA7E13E0B4}">
+          <x14:formula1>
+            <xm:f>'Offices &amp; Candidates'!$I$6:$I$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>J6:J25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{19E1003F-2D48-A940-B000-B122AE43ABF6}">
           <x14:formula1>
             <xm:f>'Offices &amp; Candidates'!$G$6:$G$12</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{39585757-0834-C949-9E33-C32F2879287C}">
-          <x14:formula1>
-            <xm:f>'Offices &amp; Candidates'!$H$6:$H$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC523EC6-627B-7B47-B585-9CAA7E13E0B4}">
-          <x14:formula1>
-            <xm:f>'Offices &amp; Candidates'!$I$6:$I$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H10</xm:sqref>
+          <xm:sqref>H6:H25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1150,221 +1715,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A91BC5-5470-A441-AE5A-8F8BE0C5F647}">
   <dimension ref="C3:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I12"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" style="15"/>
+    <col min="3" max="3" width="23.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="C4" s="16" t="s">
+    <row r="3" spans="3:9" ht="103" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="3:9" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C4:I4"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>